--- a/difs/Catalogs.xlsx
+++ b/difs/Catalogs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>System</t>
   </si>
@@ -64,6 +64,84 @@
   </si>
   <si>
     <t>info</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>eco01</t>
+  </si>
+  <si>
+    <t>viva</t>
+  </si>
+  <si>
+    <t>semi_commercial</t>
+  </si>
+  <si>
+    <t>sport_pvc</t>
+  </si>
+  <si>
+    <t>tile_pvc</t>
+  </si>
+  <si>
+    <t>astral_color</t>
+  </si>
+  <si>
+    <t>top_extra</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>gymfit50</t>
+  </si>
+  <si>
+    <t>gymfit60</t>
+  </si>
+  <si>
+    <t>rocket</t>
+  </si>
+  <si>
+    <t>parquet</t>
+  </si>
+  <si>
+    <t>diamond_st_fresh</t>
+  </si>
+  <si>
+    <t>diamond_st_metal</t>
+  </si>
+  <si>
+    <t>diamond_st_tech</t>
+  </si>
+  <si>
+    <t>diamond_st_plaza</t>
+  </si>
+  <si>
+    <t>fortis</t>
+  </si>
+  <si>
+    <t>broadway17</t>
+  </si>
+  <si>
+    <t>broadway20</t>
+  </si>
+  <si>
+    <t>duett</t>
+  </si>
+  <si>
+    <t>plankit</t>
+  </si>
+  <si>
+    <t>domino</t>
   </si>
 </sst>
 </file>
@@ -388,16 +466,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -408,65 +486,181 @@
       <c r="B1" t="s">
         <v>8</v>
       </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="D8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>13</v>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>6</v>
+      <c r="C15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>3</v>
       </c>
     </row>

--- a/difs/Catalogs.xlsx
+++ b/difs/Catalogs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\it\pNode\grabo\difs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\it\projects\grabo\difs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="0" windowWidth="20730" windowHeight="9405"/>
+    <workbookView xWindow="6000" yWindow="0" windowWidth="20736" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
-    <t>System</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -45,27 +42,15 @@
     <t>home</t>
   </si>
   <si>
-    <t>catalog</t>
-  </si>
-  <si>
-    <t>galery</t>
-  </si>
-  <si>
     <t>downloads</t>
   </si>
   <si>
-    <t>become-diller</t>
-  </si>
-  <si>
     <t>contacts</t>
   </si>
   <si>
     <t>about</t>
   </si>
   <si>
-    <t>info</t>
-  </si>
-  <si>
     <t>basic</t>
   </si>
   <si>
@@ -90,9 +75,6 @@
     <t>sport_pvc</t>
   </si>
   <si>
-    <t>tile_pvc</t>
-  </si>
-  <si>
     <t>astral_color</t>
   </si>
   <si>
@@ -142,6 +124,24 @@
   </si>
   <si>
     <t>domino</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>become_dealer</t>
+  </si>
+  <si>
+    <t>tile</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>products</t>
   </si>
 </sst>
 </file>
@@ -466,202 +466,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/difs/Catalogs.xlsx
+++ b/difs/Catalogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="0" windowWidth="20736" windowHeight="9408"/>
+    <workbookView xWindow="7236" yWindow="0" windowWidth="20736" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -469,14 +469,16 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/difs/Catalogs.xlsx
+++ b/difs/Catalogs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\it\projects\grabo\difs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\it\pNode\grabo\difs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7236" yWindow="0" windowWidth="20736" windowHeight="9408"/>
+    <workbookView xWindow="7230" yWindow="0" windowWidth="20730" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Login</t>
   </si>
@@ -142,6 +142,30 @@
   </si>
   <si>
     <t>products</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>product-detail (детальний опис колекції з дизайнами)</t>
+  </si>
+  <si>
+    <t>collection: 'products'</t>
+  </si>
+  <si>
+    <t>collection: 'catalogs'</t>
+  </si>
+  <si>
+    <t>products-list (сітка категорій або колекцій))</t>
+  </si>
+  <si>
+    <t>products-list-item(зображення категорії з назвою)</t>
+  </si>
+  <si>
+    <t>products-list-item</t>
+  </si>
+  <si>
+    <t>??(зображення колекції з назвою і короткими даними)</t>
   </si>
 </sst>
 </file>
@@ -466,201 +490,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>38</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>2</v>
       </c>
     </row>

--- a/difs/Catalogs.xlsx
+++ b/difs/Catalogs.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\it\pNode\grabo\difs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\it\projects\grabo\difs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="0" windowWidth="20730" windowHeight="9405"/>
+    <workbookView xWindow="1152" yWindow="0" windowWidth="21096" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Login</t>
   </si>
@@ -144,9 +144,6 @@
     <t>products</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>product-detail (детальний опис колекції з дизайнами)</t>
   </si>
   <si>
@@ -162,38 +159,63 @@
     <t>products-list-item(зображення категорії з назвою)</t>
   </si>
   <si>
-    <t>products-list-item</t>
-  </si>
-  <si>
     <t>??(зображення колекції з назвою і короткими даними)</t>
+  </si>
+  <si>
+    <t>procucts-brief</t>
+  </si>
+  <si>
+    <t>products-catalog</t>
+  </si>
+  <si>
+    <t>products-detail</t>
+  </si>
+  <si>
+    <t>products-catalog</t>
+  </si>
+  <si>
+    <t>products-brief</t>
+  </si>
+  <si>
+    <t>products-detail</t>
+  </si>
+  <si>
+    <t>зобр. категорії з назвою</t>
+  </si>
+  <si>
+    <t>зобр. колекції з назвою і коротким описом</t>
+  </si>
+  <si>
+    <t>детально колекція з дизайнами</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -206,10 +228,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -273,9 +305,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -308,9 +340,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -490,243 +522,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="44.77734375" customWidth="1"/>
+    <col min="6" max="6" width="47.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/difs/Catalogs.xlsx
+++ b/difs/Catalogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="0" windowWidth="21096" windowHeight="9396"/>
+    <workbookView xWindow="2304" yWindow="0" windowWidth="21096" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Login</t>
   </si>
@@ -154,21 +154,6 @@
   </si>
   <si>
     <t>products-list (сітка категорій або колекцій))</t>
-  </si>
-  <si>
-    <t>products-list-item(зображення категорії з назвою)</t>
-  </si>
-  <si>
-    <t>??(зображення колекції з назвою і короткими даними)</t>
-  </si>
-  <si>
-    <t>procucts-brief</t>
-  </si>
-  <si>
-    <t>products-catalog</t>
-  </si>
-  <si>
-    <t>products-detail</t>
   </si>
   <si>
     <t>products-catalog</t>
@@ -199,7 +184,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,12 +194,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -232,14 +211,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,16 +498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.77734375" customWidth="1"/>
     <col min="5" max="5" width="44.77734375" customWidth="1"/>
@@ -549,253 +525,223 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>47</v>
       </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
       <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>42</v>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>24</v>
+      <c r="E18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>26</v>
+      <c r="D20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
       <c r="E25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
-        <v>32</v>
+      <c r="C27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
+      <c r="C28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E29" t="s">
-        <v>34</v>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>9</v>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
       <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
         <v>2</v>
       </c>
     </row>

--- a/difs/Catalogs.xlsx
+++ b/difs/Catalogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="0" windowWidth="21096" windowHeight="9396"/>
+    <workbookView xWindow="3396" yWindow="0" windowWidth="21096" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Login</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>products</t>
-  </si>
-  <si>
-    <t>product-detail (детальний опис колекції з дизайнами)</t>
   </si>
   <si>
     <t>collection: 'products'</t>
@@ -498,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,50 +513,42 @@
     <col min="8" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -576,15 +565,15 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>16</v>
       </c>
@@ -592,12 +581,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>17</v>
       </c>
@@ -605,27 +594,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>11</v>
       </c>
@@ -633,7 +622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>26</v>
       </c>

--- a/difs/Catalogs.xlsx
+++ b/difs/Catalogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="0" windowWidth="21096" windowHeight="9396"/>
+    <workbookView xWindow="4488" yWindow="0" windowWidth="21096" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Login</t>
   </si>
@@ -36,9 +36,6 @@
     <t>profile</t>
   </si>
   <si>
-    <t>product-create</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
@@ -169,6 +166,12 @@
   </si>
   <si>
     <t>детально колекція з дизайнами</t>
+  </si>
+  <si>
+    <t>designs_editor</t>
+  </si>
+  <si>
+    <t>products_editor</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,197 +518,197 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -716,21 +719,26 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>0</v>
+      <c r="D36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
         <v>2</v>
       </c>
     </row>

--- a/difs/Catalogs.xlsx
+++ b/difs/Catalogs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\it\projects\grabo\difs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\it\pNode\grabo\difs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="0" windowWidth="21096" windowHeight="9396"/>
+    <workbookView xWindow="4485" yWindow="0" windowWidth="21090" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Login</t>
   </si>
@@ -150,15 +150,6 @@
     <t>products-list (сітка категорій або колекцій))</t>
   </si>
   <si>
-    <t>products-catalog</t>
-  </si>
-  <si>
-    <t>products-brief</t>
-  </si>
-  <si>
-    <t>products-detail</t>
-  </si>
-  <si>
     <t>зобр. категорії з назвою</t>
   </si>
   <si>
@@ -172,6 +163,21 @@
   </si>
   <si>
     <t>products_editor</t>
+  </si>
+  <si>
+    <t>product-item-brief</t>
+  </si>
+  <si>
+    <t>product-item-detail</t>
+  </si>
+  <si>
+    <t>products-detail =&gt; products-detail-side + product-item-detail</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>catalog-item</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -211,11 +223,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,49 +513,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="5" width="44.77734375" customWidth="1"/>
-    <col min="6" max="6" width="47.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
@@ -551,7 +574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -567,16 +590,16 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>15</v>
       </c>
@@ -584,12 +607,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>16</v>
       </c>
@@ -597,27 +620,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -625,32 +648,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>12</v>
       </c>
@@ -658,17 +681,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>37</v>
       </c>
@@ -676,37 +699,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -717,27 +740,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>

--- a/difs/Catalogs.xlsx
+++ b/difs/Catalogs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\it\pNode\grabo\difs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\it\projects\grabo\difs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="0" windowWidth="21090" windowHeight="9390"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="21096" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Login</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>catalog-item</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>grabosafe_20_JSK</t>
+  </si>
+  <si>
+    <t>ecosafe</t>
   </si>
 </sst>
 </file>
@@ -513,68 +522,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="256" width="10" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="257" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -590,16 +600,16 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>15</v>
       </c>
@@ -607,12 +617,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>16</v>
       </c>
@@ -620,27 +630,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -648,120 +658,133 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
         <v>37</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
         <v>2</v>
       </c>
     </row>
